--- a/apps/conneXion/design_time/appdef_conneXion_ff.xlsx
+++ b/apps/conneXion/design_time/appdef_conneXion_ff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\athena\github\trusted-service\apps\conneXion\design_time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809249D5-6503-40F0-9610-C332B9073C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26A388-31B4-4226-B0FD-E7F683A15701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="973" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="973" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP &amp; MODEL" sheetId="25" r:id="rId1"/>
@@ -23,14 +23,16 @@
     <sheet name="definitions" sheetId="7" r:id="rId8"/>
     <sheet name="intentions" sheetId="2" r:id="rId9"/>
     <sheet name="text_analysis" sheetId="1" r:id="rId10"/>
-    <sheet name="DECISION" sheetId="27" r:id="rId11"/>
-    <sheet name="odm" sheetId="15" r:id="rId12"/>
-    <sheet name="drools" sheetId="16" r:id="rId13"/>
-    <sheet name="DISTRIBUTION" sheetId="28" r:id="rId14"/>
-    <sheet name="email_configuration" sheetId="13" r:id="rId15"/>
-    <sheet name="email_templates" sheetId="11" r:id="rId16"/>
-    <sheet name="APP-SPECIFIC" sheetId="22" r:id="rId17"/>
-    <sheet name="plans" sheetId="23" r:id="rId18"/>
+    <sheet name="llm_configs" sheetId="30" r:id="rId11"/>
+    <sheet name="DECISION" sheetId="27" r:id="rId12"/>
+    <sheet name="decision_engine_configs" sheetId="29" r:id="rId13"/>
+    <sheet name="odm" sheetId="15" r:id="rId14"/>
+    <sheet name="drools" sheetId="16" r:id="rId15"/>
+    <sheet name="DISTRIBUTION" sheetId="28" r:id="rId16"/>
+    <sheet name="email_configuration" sheetId="13" r:id="rId17"/>
+    <sheet name="email_templates" sheetId="11" r:id="rId18"/>
+    <sheet name="APP-SPECIFIC" sheetId="22" r:id="rId19"/>
+    <sheet name="plans" sheetId="23" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="207">
   <si>
     <t>response_format_type</t>
   </si>
@@ -205,16 +207,7 @@
     <t>pocagent78@gmail.com</t>
   </si>
   <si>
-    <t>read_from_cache</t>
-  </si>
-  <si>
-    <t>save_to_cache</t>
-  </si>
-  <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>decision_engine</t>
   </si>
   <si>
     <t>distribution_engine</t>
@@ -416,9 +409,6 @@
     <t>markdown or text</t>
   </si>
   <si>
-    <t>Either odm, drools or the fqn of a subclass of CaseHandlingDecisionEngine,  as: apps.delphes.design_time.src.decision_engine_delphes_python.CaseHandlingDecisionEngineDelphesPython</t>
-  </si>
-  <si>
     <t>openai, ollama or scaleway</t>
   </si>
   <si>
@@ -612,9 +602,6 @@
 Best regards,</t>
   </si>
   <si>
-    <t>apps.conneXion.design_time.src.decision_engine_conneXion_python.CaseHandlingDecisionEngineConnexionPython</t>
-  </si>
-  <si>
     <t>apps/conneXion/runtime</t>
   </si>
   <si>
@@ -655,6 +642,63 @@
   </si>
   <si>
     <t>Level of frustration (1 to 5)</t>
+  </si>
+  <si>
+    <t>parameter1</t>
+  </si>
+  <si>
+    <t>parameter2</t>
+  </si>
+  <si>
+    <t>parameter3</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Hardcoded decision engine</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>engine_type</t>
+  </si>
+  <si>
+    <t>apps.conneXion.design_time.src.decision_engine_conneXion_python</t>
+  </si>
+  <si>
+    <t>CaseHandlingDecisionEngineConnexionPython</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>do not rename as it is the default value for v1 legacy calls</t>
+  </si>
+  <si>
+    <t>openai1</t>
+  </si>
+  <si>
+    <t>ollama1</t>
+  </si>
+  <si>
+    <t>scaleway1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>openai2</t>
+  </si>
+  <si>
+    <t>ollama2</t>
+  </si>
+  <si>
+    <t>scaleway2</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1122,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1090,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,10 +1145,12 @@
     <col min="1" max="1" width="26.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="86.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="59.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1118,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -1139,16 +1185,16 @@
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1167,16 +1213,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1201,10 +1247,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1217,22 +1263,22 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1265,10 +1311,10 @@
     </row>
     <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1283,46 +1329,16 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
+    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:N1"/>
@@ -1333,6 +1349,136 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C464E1CA-E84B-4BA6-8317-174819184E99}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5987CB-B31E-4266-A5A3-C356313D0A31}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1349,7 +1495,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5609F2C9-1DAC-445D-8758-7844C0303FDB}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA2560B-2446-422E-A0A3-EC959CE749E5}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1373,18 +1587,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67526D7-3946-41B7-9C99-93B1591CF2D0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1419,10 +1633,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C421946-477F-451E-AF1F-9EE7DF5B81A2}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1447,7 +1661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD020DE-44B7-44EF-BEA3-8491F2595E0A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1529,13 +1743,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAADDD23-DB13-4EC8-8D22-BE27FCA5478C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1569,10 +1783,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>35</v>
@@ -1583,36 +1797,36 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8AFBFA-5790-4484-BB1A-96526826C9C1}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1633,133 +1847,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316FA168-2252-420B-B68F-E9525D61AA2D}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1792,32 +1879,159 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316FA168-2252-420B-B68F-E9525D61AA2D}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1826,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549C78AA-1218-455B-9887-3E0A5E59C6C7}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,52 +2064,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>115</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>186</v>
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1919,26 +2122,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1964,42 +2167,42 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2215,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,22 +2241,22 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>24</v>
@@ -2068,7 +2271,7 @@
         <v>25</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>26</v>
@@ -2079,69 +2282,69 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>31</v>
@@ -2150,42 +2353,42 @@
         <v>38</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>32</v>
@@ -2194,42 +2397,42 @@
         <v>38</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>44</v>
@@ -2238,195 +2441,195 @@
         <v>38</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2475,7 +2678,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>22</v>
@@ -2486,10 +2689,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2497,7 +2700,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -2508,10 +2711,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2519,10 +2722,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2530,10 +2733,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2560,12 +2763,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2578,65 +2781,65 @@
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/apps/conneXion/design_time/appdef_conneXion_ff.xlsx
+++ b/apps/conneXion/design_time/appdef_conneXion_ff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\athena\github\trusted-service\apps\conneXion\design_time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26A388-31B4-4226-B0FD-E7F683A15701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B6C67F-6312-47C5-888C-0C2D05A15AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="973" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="973" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP &amp; MODEL" sheetId="25" r:id="rId1"/>
@@ -20,19 +20,16 @@
     <sheet name="messages_to_requester" sheetId="20" r:id="rId5"/>
     <sheet name="case_fields" sheetId="10" r:id="rId6"/>
     <sheet name="TEXT ANALYSIS" sheetId="26" r:id="rId7"/>
-    <sheet name="definitions" sheetId="7" r:id="rId8"/>
-    <sheet name="intentions" sheetId="2" r:id="rId9"/>
-    <sheet name="text_analysis" sheetId="1" r:id="rId10"/>
-    <sheet name="llm_configs" sheetId="30" r:id="rId11"/>
-    <sheet name="DECISION" sheetId="27" r:id="rId12"/>
-    <sheet name="decision_engine_configs" sheetId="29" r:id="rId13"/>
-    <sheet name="odm" sheetId="15" r:id="rId14"/>
-    <sheet name="drools" sheetId="16" r:id="rId15"/>
-    <sheet name="DISTRIBUTION" sheetId="28" r:id="rId16"/>
-    <sheet name="email_configuration" sheetId="13" r:id="rId17"/>
-    <sheet name="email_templates" sheetId="11" r:id="rId18"/>
-    <sheet name="APP-SPECIFIC" sheetId="22" r:id="rId19"/>
-    <sheet name="plans" sheetId="23" r:id="rId20"/>
+    <sheet name="text_analysis" sheetId="1" r:id="rId8"/>
+    <sheet name="definitions" sheetId="7" r:id="rId9"/>
+    <sheet name="intentions" sheetId="2" r:id="rId10"/>
+    <sheet name="DECISION" sheetId="27" r:id="rId11"/>
+    <sheet name="decision_engine_configs" sheetId="29" r:id="rId12"/>
+    <sheet name="DISTRIBUTION" sheetId="28" r:id="rId13"/>
+    <sheet name="email_configuration" sheetId="13" r:id="rId14"/>
+    <sheet name="email_templates" sheetId="11" r:id="rId15"/>
+    <sheet name="APP-SPECIFIC" sheetId="22" r:id="rId16"/>
+    <sheet name="plans" sheetId="23" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,19 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="207">
-  <si>
-    <t>response_format_type</t>
-  </si>
-  <si>
-    <t>json_object or pydantic_model</t>
-  </si>
-  <si>
-    <t>pydantic_model</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="178">
   <si>
     <t>Parameter</t>
   </si>
@@ -78,12 +63,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>gpt-4o-mini</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -93,12 +72,6 @@
     <t>bool</t>
   </si>
   <si>
-    <t>llm</t>
-  </si>
-  <si>
-    <t>openai</t>
-  </si>
-  <si>
     <t># Does not support formulas</t>
   </si>
   <si>
@@ -211,18 +184,12 @@
   </si>
   <si>
     <t>distribution_engine</t>
-  </si>
-  <si>
-    <t>decision_service_url</t>
   </si>
   <si>
     <t>{prenom} {nom},
 Nous avons traité votre demande du {date_demande} en rapport avec l'expiration d'une API</t>
   </si>
   <si>
-    <t>trace_rules</t>
-  </si>
-  <si>
     <t>api-a-renouveler</t>
   </si>
   <si>
@@ -233,9 +200,6 @@
   </si>
   <si>
     <t>Votre demande de sauf-conduit</t>
-  </si>
-  <si>
-    <t>drools_param</t>
   </si>
   <si>
     <t>{prenom} {nom},
@@ -248,9 +212,6 @@
 En espérant vous avoir apporté les éléments souhaités,</t>
   </si>
   <si>
-    <t>http://localhost:9060/DecisionService/rest/delphes/case_handling_decision</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -400,37 +361,7 @@
     <t>Attestation de Demande d’Asile (Certificate of Asylum Application)</t>
   </si>
   <si>
-    <t>prompt_format</t>
-  </si>
-  <si>
-    <t>markdown</t>
-  </si>
-  <si>
-    <t>markdown or text</t>
-  </si>
-  <si>
-    <t>openai, ollama or scaleway</t>
-  </si>
-  <si>
     <t>Ready to copy-paste values</t>
-  </si>
-  <si>
-    <t>ollama</t>
-  </si>
-  <si>
-    <t>scaleway</t>
-  </si>
-  <si>
-    <t>gpt-4o-mini, mistral-small or mistral-small-3.1-24b-instruct-2503</t>
-  </si>
-  <si>
-    <t>mistral-small</t>
-  </si>
-  <si>
-    <t>mistral-small-3.1-24b-instruct-2503</t>
-  </si>
-  <si>
-    <t>json_object</t>
   </si>
   <si>
     <t>True</t>
@@ -632,9 +563,6 @@
     <t>Customer Lifetime Value (Low, Medium, High)</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>CLIENT_HIGH_VALUE</t>
   </si>
   <si>
@@ -656,15 +584,9 @@
     <t>comments</t>
   </si>
   <si>
-    <t>Hardcoded decision engine</t>
-  </si>
-  <si>
     <t>python</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>engine_type</t>
   </si>
   <si>
@@ -680,25 +602,13 @@
     <t>do not rename as it is the default value for v1 legacy calls</t>
   </si>
   <si>
-    <t>openai1</t>
-  </si>
-  <si>
-    <t>ollama1</t>
-  </si>
-  <si>
-    <t>scaleway1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>openai2</t>
-  </si>
-  <si>
-    <t>ollama2</t>
-  </si>
-  <si>
-    <t>scaleway2</t>
+    <t>preprocessing</t>
+  </si>
+  <si>
+    <t>apps.conneXion.design_time.src.preprocessing.preprocessing</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -789,7 +699,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -823,9 +733,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1133,359 +1040,144 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40884519-E9E2-4702-AA20-B46B229B9942}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F5"/>
+      <selection activeCell="A6" sqref="A6:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="86.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>134</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:N1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C464E1CA-E84B-4BA6-8317-174819184E99}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5987CB-B31E-4266-A5A3-C356313D0A31}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
@@ -1495,66 +1187,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5609F2C9-1DAC-445D-8758-7844C0303FDB}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>199</v>
+        <v>172</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1563,97 +1250,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA2560B-2446-422E-A0A3-EC959CE749E5}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0B2724BA-D7EB-4960-A3AF-7147620CC45E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67526D7-3946-41B7-9C99-93B1591CF2D0}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C421946-477F-451E-AF1F-9EE7DF5B81A2}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1661,7 +1265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD020DE-44B7-44EF-BEA3-8491F2595E0A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1678,63 +1282,63 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5">
         <v>587</v>
@@ -1743,13 +1347,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAADDD23-DB13-4EC8-8D22-BE27FCA5478C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1780,53 +1384,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8AFBFA-5790-4484-BB1A-96526826C9C1}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1851,67 +1455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083BFE2A-0793-449F-9ABD-C5435ECE1E33}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="101.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316FA168-2252-420B-B68F-E9525D61AA2D}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1929,109 +1473,178 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>143</v>
-      </c>
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083BFE2A-0793-449F-9ABD-C5435ECE1E33}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2055,48 +1668,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -2122,26 +1735,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2167,42 +1780,42 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2215,7 +1828,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,398 +1851,398 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>170</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2659,6 +2272,90 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="86.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F212B83-BB31-486E-8D1E-C153171C389E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2675,200 +2372,69 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40884519-E9E2-4702-AA20-B46B229B9942}">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
